--- a/Document/Excel/Levels.xlsx
+++ b/Document/Excel/Levels.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workcode\flexmobi\PigGoGo\Document\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workcode\myself\PigGoGo\Document\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="35835" windowHeight="20295" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="35835" windowHeight="20295"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
   <si>
     <t>string</t>
   </si>
@@ -166,6 +166,42 @@
   </si>
   <si>
     <t>10002_10003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>障碍道具类型1炸弹(位置和总数量)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001_10002_10003_10001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001_10003_10003_10002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10002_10002_10001_10003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_2_15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001_10002_10003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4_4_4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -244,7 +280,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -267,11 +303,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -303,6 +350,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -606,10 +662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -723,6 +779,25 @@
         <v>Desc2</v>
       </c>
     </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="13">
+        <v>3</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="6" t="str">
+        <f>"Game"&amp;A7</f>
+        <v>Game3</v>
+      </c>
+      <c r="E7" s="6" t="str">
+        <f>"Desc"&amp;A7</f>
+        <v>Desc3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -732,10 +807,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -744,9 +819,10 @@
     <col min="4" max="4" width="53.125" customWidth="1"/>
     <col min="5" max="5" width="37.5" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
+    <col min="7" max="7" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>13</v>
       </c>
@@ -765,8 +841,11 @@
       <c r="F1" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="G1" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -785,8 +864,11 @@
       <c r="F2" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G2" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>11</v>
       </c>
@@ -797,8 +879,11 @@
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="G3" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -817,8 +902,11 @@
       <c r="F4" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G4" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="str">
         <f>B5&amp;"_"&amp;C5</f>
         <v>1_3</v>
@@ -834,10 +922,11 @@
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="12" t="str">
-        <f t="shared" ref="A6:A9" si="0">B6&amp;"_"&amp;C6</f>
+        <f t="shared" ref="A6:A12" si="0">B6&amp;"_"&amp;C6</f>
         <v>1_4</v>
       </c>
       <c r="B6" s="12">
@@ -851,8 +940,9 @@
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="12" t="str">
         <f t="shared" si="0"/>
         <v>2_3</v>
@@ -868,8 +958,9 @@
       </c>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="12" t="str">
         <f t="shared" si="0"/>
         <v>2_6</v>
@@ -885,8 +976,9 @@
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="12" t="str">
         <f t="shared" si="0"/>
         <v>2_7</v>
@@ -902,6 +994,63 @@
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>3_3</v>
+      </c>
+      <c r="B10" s="16">
+        <v>3</v>
+      </c>
+      <c r="C10" s="16">
+        <v>3</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>3_6</v>
+      </c>
+      <c r="B11" s="16">
+        <v>3</v>
+      </c>
+      <c r="C11" s="16">
+        <v>6</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>3_7</v>
+      </c>
+      <c r="B12" s="16">
+        <v>3</v>
+      </c>
+      <c r="C12" s="16">
+        <v>7</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Document/Excel/Levels.xlsx
+++ b/Document/Excel/Levels.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="35835" windowHeight="20295"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="35835" windowHeight="20295" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -664,7 +664,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -807,10 +807,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -926,7 +926,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="12" t="str">
-        <f t="shared" ref="A6:A12" si="0">B6&amp;"_"&amp;C6</f>
+        <f t="shared" ref="A6:A14" si="0">B6&amp;"_"&amp;C6</f>
         <v>1_4</v>
       </c>
       <c r="B6" s="12">
@@ -1051,6 +1051,38 @@
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>3_8</v>
+      </c>
+      <c r="B13" s="16">
+        <v>3</v>
+      </c>
+      <c r="C13" s="16">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>3_9</v>
+      </c>
+      <c r="B14" s="16">
+        <v>3</v>
+      </c>
+      <c r="C14" s="16">
+        <v>9</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Document/Excel/Levels.xlsx
+++ b/Document/Excel/Levels.xlsx
@@ -280,7 +280,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -303,22 +303,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -351,13 +340,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -665,7 +651,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -810,7 +796,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:A14"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -841,7 +827,7 @@
       <c r="F1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="3" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1001,10 +987,10 @@
         <f t="shared" si="0"/>
         <v>3_3</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="14">
         <v>3</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="14">
         <v>3</v>
       </c>
       <c r="D10" s="12" t="s">
@@ -1021,10 +1007,10 @@
         <f t="shared" si="0"/>
         <v>3_6</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="14">
         <v>3</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="14">
         <v>6</v>
       </c>
       <c r="D11" s="12" t="s">
@@ -1039,10 +1025,10 @@
         <f t="shared" si="0"/>
         <v>3_7</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="14">
         <v>3</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="14">
         <v>7</v>
       </c>
       <c r="D12" s="12" t="s">
@@ -1053,14 +1039,14 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="16" t="str">
+      <c r="A13" s="14" t="str">
         <f t="shared" si="0"/>
         <v>3_8</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="14">
         <v>3</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="14">
         <v>8</v>
       </c>
       <c r="D13" s="1"/>
@@ -1069,14 +1055,14 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="16" t="str">
+      <c r="A14" s="14" t="str">
         <f t="shared" si="0"/>
         <v>3_9</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B14" s="14">
         <v>3</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="14">
         <v>9</v>
       </c>
       <c r="D14" s="1"/>

--- a/Document/Excel/Levels.xlsx
+++ b/Document/Excel/Levels.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="50">
   <si>
     <t>string</t>
   </si>
@@ -173,11 +173,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>障碍道具类型1炸弹(位置和总数量)</t>
+    <t>10001_10003_10003_10002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10002_10002_10001_10003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_2_15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001_10002_10003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4_4_4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -185,23 +197,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10001_10003_10003_10002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10002_10002_10001_10003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_2_15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10001_10002_10003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4_4_4</t>
+    <t>10001_10001_10001_10002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10004_10004_10004_10003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001_10003_10003_10003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>障碍道具类型1炸弹(位置和总数量),2 锁,3钥匙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4_3-4_2-4_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -770,10 +794,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D7" s="6" t="str">
         <f>"Game"&amp;A7</f>
@@ -793,19 +817,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="3" width="30.125" customWidth="1"/>
     <col min="4" max="4" width="53.125" customWidth="1"/>
-    <col min="5" max="5" width="37.5" customWidth="1"/>
-    <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="24.5" customWidth="1"/>
+    <col min="5" max="5" width="22.625" customWidth="1"/>
+    <col min="6" max="6" width="23" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="35.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.35">
@@ -851,7 +875,7 @@
         <v>8</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -889,7 +913,7 @@
         <v>26</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
@@ -994,12 +1018,12 @@
         <v>3</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
@@ -1014,7 +1038,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
@@ -1032,7 +1056,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
@@ -1069,6 +1093,184 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="14" t="str">
+        <f t="shared" ref="A15:A16" si="1">B15&amp;"_"&amp;C15</f>
+        <v>4_6</v>
+      </c>
+      <c r="B15" s="14">
+        <v>4</v>
+      </c>
+      <c r="C15" s="14">
+        <v>6</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>4_7</v>
+      </c>
+      <c r="B16" s="14">
+        <v>4</v>
+      </c>
+      <c r="C16" s="14">
+        <v>7</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="14" t="str">
+        <f t="shared" ref="A17" si="2">B17&amp;"_"&amp;C17</f>
+        <v>4_8</v>
+      </c>
+      <c r="B17" s="14">
+        <v>4</v>
+      </c>
+      <c r="C17" s="14">
+        <v>8</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="14" t="str">
+        <f t="shared" ref="A18" si="3">B18&amp;"_"&amp;C18</f>
+        <v>4_9</v>
+      </c>
+      <c r="B18" s="14">
+        <v>4</v>
+      </c>
+      <c r="C18" s="14">
+        <v>9</v>
+      </c>
+      <c r="D18" s="12"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="14" t="str">
+        <f t="shared" ref="A19:A22" si="4">B19&amp;"_"&amp;C19</f>
+        <v>5_5</v>
+      </c>
+      <c r="B19" s="14">
+        <v>5</v>
+      </c>
+      <c r="C19" s="14">
+        <v>5</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="14" t="str">
+        <f t="shared" si="4"/>
+        <v>5_6</v>
+      </c>
+      <c r="B20" s="14">
+        <v>5</v>
+      </c>
+      <c r="C20" s="14">
+        <v>6</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" s="14" t="str">
+        <f t="shared" si="4"/>
+        <v>5_7</v>
+      </c>
+      <c r="B21" s="14">
+        <v>5</v>
+      </c>
+      <c r="C21" s="14">
+        <v>7</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" s="14" t="str">
+        <f t="shared" si="4"/>
+        <v>5_8</v>
+      </c>
+      <c r="B22" s="14">
+        <v>5</v>
+      </c>
+      <c r="C22" s="14">
+        <v>8</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" s="14" t="str">
+        <f t="shared" ref="A23" si="5">B23&amp;"_"&amp;C23</f>
+        <v>5_9</v>
+      </c>
+      <c r="B23" s="14">
+        <v>5</v>
+      </c>
+      <c r="C23" s="14">
+        <v>9</v>
+      </c>
+      <c r="D23" s="12"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" s="14" t="str">
+        <f t="shared" ref="A24" si="6">B24&amp;"_"&amp;C24</f>
+        <v>5_9</v>
+      </c>
+      <c r="B24" s="14">
+        <v>5</v>
+      </c>
+      <c r="C24" s="14">
+        <v>9</v>
+      </c>
+      <c r="D24" s="12"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Document/Excel/Levels.xlsx
+++ b/Document/Excel/Levels.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workcode\myself\PigGoGo\Document\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/work/myself/PigGoGo/Document/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="35835" windowHeight="20295" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
     <sheet name="Detail" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -221,18 +221,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4_3-4_2-4_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>repeatedlist</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
@@ -678,16 +678,16 @@
       <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="23.625" customWidth="1"/>
-    <col min="2" max="2" width="19.875" customWidth="1"/>
-    <col min="3" max="3" width="32.375" customWidth="1"/>
-    <col min="4" max="4" width="27.25" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" customWidth="1"/>
+    <col min="3" max="3" width="32.33203125" customWidth="1"/>
+    <col min="4" max="4" width="27.1640625" customWidth="1"/>
     <col min="5" max="5" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -704,7 +704,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
         <v>17</v>
       </c>
@@ -734,7 +734,7 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -820,19 +820,19 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="3" width="30.125" customWidth="1"/>
-    <col min="4" max="4" width="53.125" customWidth="1"/>
-    <col min="5" max="5" width="22.625" customWidth="1"/>
+    <col min="2" max="3" width="30.1640625" customWidth="1"/>
+    <col min="4" max="4" width="53.1640625" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" customWidth="1"/>
     <col min="6" max="6" width="23" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="35.625" customWidth="1"/>
+    <col min="7" max="7" width="35.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>13</v>
       </c>
@@ -855,7 +855,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -875,7 +875,7 @@
         <v>8</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>48</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -890,10 +890,10 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -1219,7 +1219,7 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">

--- a/Document/Excel/Levels.xlsx
+++ b/Document/Excel/Levels.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="52">
   <si>
     <t>string</t>
   </si>
@@ -197,10 +197,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10001_10001_10001_10002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>10004_10004_10004_10003</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -226,6 +222,17 @@
   </si>
   <si>
     <t>repeatedlist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4_4_6</t>
+  </si>
+  <si>
+    <t>10001_10001_10001_10004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001_10003_10004</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -672,10 +679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -808,6 +815,47 @@
         <v>Desc3</v>
       </c>
     </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="13">
+        <v>4</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="6" t="str">
+        <f t="shared" ref="D8:D9" si="0">"Game"&amp;A8</f>
+        <v>Game4</v>
+      </c>
+      <c r="E8" s="6" t="str">
+        <f t="shared" ref="E8:E9" si="1">"Desc"&amp;A8</f>
+        <v>Desc4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="13">
+        <v>5</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Game5</v>
+      </c>
+      <c r="E9" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Desc5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E10" s="6"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -819,8 +867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -890,7 +938,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.25">
@@ -913,7 +961,7 @@
         <v>26</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
@@ -1106,12 +1154,12 @@
         <v>6</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
@@ -1126,12 +1174,12 @@
         <v>7</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
@@ -1146,7 +1194,7 @@
         <v>8</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -1180,7 +1228,7 @@
         <v>5</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -1214,12 +1262,12 @@
         <v>7</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
@@ -1234,7 +1282,7 @@
         <v>8</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>

--- a/Document/Excel/Levels.xlsx
+++ b/Document/Excel/Levels.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/work/myself/PigGoGo/Document/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workcode\myself\PigGoGo\Document\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="35835" windowHeight="20205" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
     <sheet name="Detail" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -213,10 +213,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>障碍道具类型1炸弹(位置和总数量),2 锁,3钥匙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4_3-4_2-4_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -225,21 +221,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4_4_6</t>
-  </si>
-  <si>
     <t>10001_10001_10001_10004</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>10001_10003_10004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4_4_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>障碍道具类型1炸弹(位置和总数量),类型2锁(位置）,类型3钥匙(位置)，如果有多组则用“-”分割</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
@@ -681,20 +682,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" customWidth="1"/>
-    <col min="2" max="2" width="19.83203125" customWidth="1"/>
-    <col min="3" max="3" width="32.33203125" customWidth="1"/>
-    <col min="4" max="4" width="27.1640625" customWidth="1"/>
+    <col min="1" max="1" width="23.625" customWidth="1"/>
+    <col min="2" max="2" width="19.875" customWidth="1"/>
+    <col min="3" max="3" width="32.375" customWidth="1"/>
+    <col min="4" max="4" width="27.125" customWidth="1"/>
     <col min="5" max="5" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -711,7 +712,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
         <v>17</v>
       </c>
@@ -741,7 +742,7 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -820,7 +821,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>40</v>
@@ -839,10 +840,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D9" s="6" t="str">
         <f t="shared" si="0"/>
@@ -867,20 +868,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="3" width="30.1640625" customWidth="1"/>
-    <col min="4" max="4" width="53.1640625" customWidth="1"/>
-    <col min="5" max="5" width="22.6640625" customWidth="1"/>
+    <col min="2" max="3" width="30.125" customWidth="1"/>
+    <col min="4" max="4" width="53.125" customWidth="1"/>
+    <col min="5" max="5" width="22.625" customWidth="1"/>
     <col min="6" max="6" width="23" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="35.6640625" customWidth="1"/>
+    <col min="7" max="7" width="55" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>13</v>
       </c>
@@ -903,7 +904,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -938,10 +939,10 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -961,7 +962,7 @@
         <v>26</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
@@ -1154,7 +1155,7 @@
         <v>6</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -1228,7 +1229,7 @@
         <v>5</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -1267,7 +1268,7 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">

--- a/Document/Excel/Levels.xlsx
+++ b/Document/Excel/Levels.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="35835" windowHeight="20205" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="35835" windowHeight="20205"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="58">
   <si>
     <t>string</t>
   </si>
@@ -117,18 +117,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CanAddItem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否有后续的物品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RemainPigNum</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -234,6 +222,42 @@
   </si>
   <si>
     <t>障碍道具类型1炸弹(位置和总数量),类型2锁(位置）,类型3钥匙(位置)，如果有多组则用“-”分割</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后续的猪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0_0_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0_0_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0_0_0_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001_10002_10003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4_4_4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -680,17 +704,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="23.625" customWidth="1"/>
-    <col min="2" max="2" width="19.875" customWidth="1"/>
-    <col min="3" max="3" width="32.375" customWidth="1"/>
+    <col min="2" max="2" width="28.875" customWidth="1"/>
+    <col min="3" max="3" width="30.25" customWidth="1"/>
     <col min="4" max="4" width="27.125" customWidth="1"/>
     <col min="5" max="5" width="20.5" customWidth="1"/>
   </cols>
@@ -759,103 +783,125 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="13">
-        <v>1</v>
-      </c>
-      <c r="B5" s="13">
-        <v>10001</v>
-      </c>
-      <c r="C5" s="13">
-        <v>4</v>
-      </c>
-      <c r="D5" s="6" t="str">
-        <f>"Game"&amp;A5</f>
-        <v>Game1</v>
-      </c>
-      <c r="E5" s="6" t="str">
-        <f>"Desc"&amp;A5</f>
-        <v>Desc1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="13">
-        <v>2</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="6" t="str">
-        <f>"Game"&amp;A6</f>
-        <v>Game2</v>
-      </c>
-      <c r="E6" s="6" t="str">
-        <f>"Desc"&amp;A6</f>
-        <v>Desc2</v>
-      </c>
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="4">
+        <v>-1</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="4">
+        <v>-2</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="13">
-        <v>3</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>40</v>
+        <v>1</v>
+      </c>
+      <c r="B7" s="13">
+        <v>10001</v>
+      </c>
+      <c r="C7" s="13">
+        <v>4</v>
       </c>
       <c r="D7" s="6" t="str">
         <f>"Game"&amp;A7</f>
-        <v>Game3</v>
+        <v>Game1</v>
       </c>
       <c r="E7" s="6" t="str">
         <f>"Desc"&amp;A7</f>
-        <v>Desc3</v>
+        <v>Desc1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D8" s="6" t="str">
-        <f t="shared" ref="D8:D9" si="0">"Game"&amp;A8</f>
-        <v>Game4</v>
+        <f>"Game"&amp;A8</f>
+        <v>Game2</v>
       </c>
       <c r="E8" s="6" t="str">
-        <f t="shared" ref="E8:E9" si="1">"Desc"&amp;A8</f>
-        <v>Desc4</v>
+        <f>"Desc"&amp;A8</f>
+        <v>Desc2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="13">
+        <v>3</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="6" t="str">
+        <f>"Game"&amp;A9</f>
+        <v>Game3</v>
+      </c>
+      <c r="E9" s="6" t="str">
+        <f>"Desc"&amp;A9</f>
+        <v>Desc3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="13">
+        <v>4</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="6" t="str">
+        <f t="shared" ref="D10:D11" si="0">"Game"&amp;A10</f>
+        <v>Game4</v>
+      </c>
+      <c r="E10" s="6" t="str">
+        <f t="shared" ref="E10:E11" si="1">"Desc"&amp;A10</f>
+        <v>Desc4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="13">
         <v>5</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="6" t="str">
+      <c r="B11" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Game5</v>
       </c>
-      <c r="E9" s="6" t="str">
+      <c r="E11" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Desc5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="E10" s="6"/>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E12" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -866,10 +912,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -895,13 +941,13 @@
         <v>21</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
@@ -918,7 +964,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>8</v>
@@ -939,7 +985,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
@@ -950,376 +996,514 @@
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="str">
-        <f>B5&amp;"_"&amp;C5</f>
-        <v>1_3</v>
-      </c>
-      <c r="B5" s="12">
-        <v>1</v>
-      </c>
-      <c r="C5" s="12">
-        <v>3</v>
-      </c>
-      <c r="D5" s="12">
-        <v>10001</v>
-      </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
+        <f t="shared" ref="A5:A9" si="0">B5&amp;"_"&amp;C5</f>
+        <v>-1_4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>-1</v>
+      </c>
+      <c r="C5" s="10">
+        <v>4</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="str">
-        <f t="shared" ref="A6:A14" si="0">B6&amp;"_"&amp;C6</f>
-        <v>1_4</v>
-      </c>
-      <c r="B6" s="12">
-        <v>1</v>
-      </c>
-      <c r="C6" s="12">
-        <v>4</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
+        <f t="shared" si="0"/>
+        <v>-1_5</v>
+      </c>
+      <c r="B6" s="4">
+        <v>-1</v>
+      </c>
+      <c r="C6" s="10">
+        <v>5</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>2_3</v>
-      </c>
-      <c r="B7" s="12">
-        <v>2</v>
-      </c>
-      <c r="C7" s="12">
-        <v>3</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
+        <v>-1_8</v>
+      </c>
+      <c r="B7" s="4">
+        <v>-1</v>
+      </c>
+      <c r="C7" s="10">
+        <v>8</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>2_6</v>
-      </c>
-      <c r="B8" s="12">
-        <v>2</v>
-      </c>
-      <c r="C8" s="12">
-        <v>6</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
+        <v>-1_9</v>
+      </c>
+      <c r="B8" s="4">
+        <v>-1</v>
+      </c>
+      <c r="C8" s="10">
+        <v>9</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>2_7</v>
-      </c>
-      <c r="B9" s="12">
-        <v>2</v>
-      </c>
-      <c r="C9" s="12">
-        <v>7</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
+        <v>-1_12</v>
+      </c>
+      <c r="B9" s="4">
+        <v>-1</v>
+      </c>
+      <c r="C9" s="10">
+        <v>12</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>3_3</v>
-      </c>
-      <c r="B10" s="14">
+        <f>B10&amp;"_"&amp;C10</f>
+        <v>1_3</v>
+      </c>
+      <c r="B10" s="12">
+        <v>1</v>
+      </c>
+      <c r="C10" s="12">
         <v>3</v>
       </c>
-      <c r="C10" s="14">
-        <v>3</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="12"/>
+      <c r="D10" s="12">
+        <v>10001</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
       <c r="F10" s="12"/>
-      <c r="G10" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>3_6</v>
-      </c>
-      <c r="B11" s="14">
-        <v>3</v>
-      </c>
-      <c r="C11" s="14">
-        <v>6</v>
+        <f t="shared" ref="A11:A19" si="1">B11&amp;"_"&amp;C11</f>
+        <v>1_4</v>
+      </c>
+      <c r="B11" s="12">
+        <v>1</v>
+      </c>
+      <c r="C11" s="12">
+        <v>4</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="12"/>
+        <v>26</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
       <c r="F11" s="12"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>3_7</v>
-      </c>
-      <c r="B12" s="14">
+        <f t="shared" si="1"/>
+        <v>2_3</v>
+      </c>
+      <c r="B12" s="12">
+        <v>2</v>
+      </c>
+      <c r="C12" s="12">
         <v>3</v>
       </c>
-      <c r="C12" s="14">
-        <v>7</v>
-      </c>
       <c r="D12" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="12"/>
+        <v>27</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
       <c r="F12" s="12"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="14" t="str">
-        <f t="shared" si="0"/>
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>2_6</v>
+      </c>
+      <c r="B13" s="12">
+        <v>2</v>
+      </c>
+      <c r="C13" s="12">
+        <v>6</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>2_7</v>
+      </c>
+      <c r="B14" s="12">
+        <v>2</v>
+      </c>
+      <c r="C14" s="12">
+        <v>7</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0</v>
+      </c>
+      <c r="F14" s="12"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>3_3</v>
+      </c>
+      <c r="B15" s="14">
+        <v>3</v>
+      </c>
+      <c r="C15" s="14">
+        <v>3</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0</v>
+      </c>
+      <c r="F15" s="12"/>
+      <c r="G15" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A16" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>3_6</v>
+      </c>
+      <c r="B16" s="14">
+        <v>3</v>
+      </c>
+      <c r="C16" s="14">
+        <v>6</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0</v>
+      </c>
+      <c r="F16" s="12"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A17" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>3_7</v>
+      </c>
+      <c r="B17" s="14">
+        <v>3</v>
+      </c>
+      <c r="C17" s="14">
+        <v>7</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0</v>
+      </c>
+      <c r="F17" s="12"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A18" s="14" t="str">
+        <f t="shared" si="1"/>
         <v>3_8</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B18" s="14">
         <v>3</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C18" s="14">
         <v>8</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>3_9</v>
-      </c>
-      <c r="B14" s="14">
-        <v>3</v>
-      </c>
-      <c r="C14" s="14">
-        <v>9</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="14" t="str">
-        <f t="shared" ref="A15:A16" si="1">B15&amp;"_"&amp;C15</f>
-        <v>4_6</v>
-      </c>
-      <c r="B15" s="14">
-        <v>4</v>
-      </c>
-      <c r="C15" s="14">
-        <v>6</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>4_7</v>
-      </c>
-      <c r="B16" s="14">
-        <v>4</v>
-      </c>
-      <c r="C16" s="14">
-        <v>7</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="14" t="str">
-        <f t="shared" ref="A17" si="2">B17&amp;"_"&amp;C17</f>
-        <v>4_8</v>
-      </c>
-      <c r="B17" s="14">
-        <v>4</v>
-      </c>
-      <c r="C17" s="14">
-        <v>8</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="14" t="str">
-        <f t="shared" ref="A18" si="3">B18&amp;"_"&amp;C18</f>
-        <v>4_9</v>
-      </c>
-      <c r="B18" s="14">
-        <v>4</v>
-      </c>
-      <c r="C18" s="14">
-        <v>9</v>
-      </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="4">
+        <v>0</v>
+      </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="14" t="str">
-        <f t="shared" ref="A19:A22" si="4">B19&amp;"_"&amp;C19</f>
-        <v>5_5</v>
+        <f t="shared" si="1"/>
+        <v>3_9</v>
       </c>
       <c r="B19" s="14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C19" s="14">
-        <v>5</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="4">
+        <v>0</v>
+      </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v>5_6</v>
+        <f t="shared" ref="A20:A21" si="2">B20&amp;"_"&amp;C20</f>
+        <v>4_6</v>
       </c>
       <c r="B20" s="14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C20" s="14">
         <v>6</v>
       </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="1"/>
+      <c r="D20" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0</v>
+      </c>
       <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G20" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v>5_7</v>
+        <f t="shared" si="2"/>
+        <v>4_7</v>
       </c>
       <c r="B21" s="14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C21" s="14">
         <v>7</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0</v>
+      </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v>5_8</v>
+        <f t="shared" ref="A22" si="3">B22&amp;"_"&amp;C22</f>
+        <v>4_8</v>
       </c>
       <c r="B22" s="14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C22" s="14">
         <v>8</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E22" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0</v>
+      </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="14" t="str">
-        <f t="shared" ref="A23" si="5">B23&amp;"_"&amp;C23</f>
-        <v>5_9</v>
+        <f t="shared" ref="A23" si="4">B23&amp;"_"&amp;C23</f>
+        <v>4_9</v>
       </c>
       <c r="B23" s="14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C23" s="14">
         <v>9</v>
       </c>
       <c r="D23" s="12"/>
-      <c r="E23" s="1"/>
+      <c r="E23" s="4">
+        <v>0</v>
+      </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="14" t="str">
-        <f t="shared" ref="A24" si="6">B24&amp;"_"&amp;C24</f>
-        <v>5_9</v>
+        <f t="shared" ref="A24:A27" si="5">B24&amp;"_"&amp;C24</f>
+        <v>5_5</v>
       </c>
       <c r="B24" s="14">
         <v>5</v>
       </c>
       <c r="C24" s="14">
-        <v>9</v>
-      </c>
-      <c r="D24" s="12"/>
-      <c r="E24" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0</v>
+      </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A25" s="14" t="str">
+        <f t="shared" si="5"/>
+        <v>5_6</v>
+      </c>
+      <c r="B25" s="14">
+        <v>5</v>
+      </c>
+      <c r="C25" s="14">
+        <v>6</v>
+      </c>
+      <c r="D25" s="12"/>
+      <c r="E25" s="4">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A26" s="14" t="str">
+        <f t="shared" si="5"/>
+        <v>5_7</v>
+      </c>
+      <c r="B26" s="14">
+        <v>5</v>
+      </c>
+      <c r="C26" s="14">
+        <v>7</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A27" s="14" t="str">
+        <f t="shared" si="5"/>
+        <v>5_8</v>
+      </c>
+      <c r="B27" s="14">
+        <v>5</v>
+      </c>
+      <c r="C27" s="14">
+        <v>8</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A28" s="14" t="str">
+        <f t="shared" ref="A28" si="6">B28&amp;"_"&amp;C28</f>
+        <v>5_9</v>
+      </c>
+      <c r="B28" s="14">
+        <v>5</v>
+      </c>
+      <c r="C28" s="14">
+        <v>9</v>
+      </c>
+      <c r="D28" s="12"/>
+      <c r="E28" s="4">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A29" s="14" t="str">
+        <f t="shared" ref="A29" si="7">B29&amp;"_"&amp;C29</f>
+        <v>5_9</v>
+      </c>
+      <c r="B29" s="14">
+        <v>5</v>
+      </c>
+      <c r="C29" s="14">
+        <v>9</v>
+      </c>
+      <c r="D29" s="12"/>
+      <c r="E29" s="4">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Document/Excel/Levels.xlsx
+++ b/Document/Excel/Levels.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="35835" windowHeight="20205"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="35835" windowHeight="20205" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="60">
   <si>
     <t>string</t>
   </si>
@@ -258,6 +258,14 @@
   </si>
   <si>
     <t>4_4_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001_10002_10003_10004_10005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40_40_40_40_40</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -704,10 +712,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -783,125 +791,124 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="4">
-        <v>-1</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="4">
-        <v>-2</v>
-      </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="13">
+        <v>1</v>
+      </c>
+      <c r="B5" s="13">
+        <v>10001</v>
+      </c>
+      <c r="C5" s="13">
+        <v>4</v>
+      </c>
+      <c r="D5" s="6" t="str">
+        <f>"Game"&amp;A5</f>
+        <v>Game1</v>
+      </c>
+      <c r="E5" s="6" t="str">
+        <f>"Desc"&amp;A5</f>
+        <v>Desc1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="13">
+        <v>2</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="6" t="str">
+        <f>"Game"&amp;A6</f>
+        <v>Game2</v>
+      </c>
+      <c r="E6" s="6" t="str">
+        <f>"Desc"&amp;A6</f>
+        <v>Desc2</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="13">
-        <v>1</v>
-      </c>
-      <c r="B7" s="13">
-        <v>10001</v>
-      </c>
-      <c r="C7" s="13">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>37</v>
       </c>
       <c r="D7" s="6" t="str">
         <f>"Game"&amp;A7</f>
-        <v>Game1</v>
+        <v>Game3</v>
       </c>
       <c r="E7" s="6" t="str">
         <f>"Desc"&amp;A7</f>
-        <v>Desc1</v>
+        <v>Desc3</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D8" s="6" t="str">
-        <f>"Game"&amp;A8</f>
-        <v>Game2</v>
+        <f t="shared" ref="D8:D9" si="0">"Game"&amp;A8</f>
+        <v>Game4</v>
       </c>
       <c r="E8" s="6" t="str">
-        <f>"Desc"&amp;A8</f>
-        <v>Desc2</v>
+        <f t="shared" ref="E8:E9" si="1">"Desc"&amp;A8</f>
+        <v>Desc4</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D9" s="6" t="str">
-        <f>"Game"&amp;A9</f>
-        <v>Game3</v>
-      </c>
-      <c r="E9" s="6" t="str">
-        <f>"Desc"&amp;A9</f>
-        <v>Desc3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="13">
-        <v>4</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="6" t="str">
-        <f t="shared" ref="D10:D11" si="0">"Game"&amp;A10</f>
-        <v>Game4</v>
-      </c>
-      <c r="E10" s="6" t="str">
-        <f t="shared" ref="E10:E11" si="1">"Desc"&amp;A10</f>
-        <v>Desc4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="13">
-        <v>5</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Game5</v>
       </c>
-      <c r="E11" s="6" t="str">
+      <c r="E9" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Desc5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="E12" s="6"/>
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="4">
+        <v>999998</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="4">
+        <v>999999</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>59</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -912,10 +919,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1013,11 +1020,11 @@
     </row>
     <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="str">
-        <f t="shared" ref="A5:A9" si="0">B5&amp;"_"&amp;C5</f>
-        <v>-1_4</v>
+        <f t="shared" ref="A5:A21" si="0">B5&amp;"_"&amp;C5</f>
+        <v>999998_4</v>
       </c>
       <c r="B5" s="4">
-        <v>-1</v>
+        <v>999998</v>
       </c>
       <c r="C5" s="10">
         <v>4</v>
@@ -1034,10 +1041,10 @@
     <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>-1_5</v>
+        <v>999998_5</v>
       </c>
       <c r="B6" s="4">
-        <v>-1</v>
+        <v>999998</v>
       </c>
       <c r="C6" s="10">
         <v>5</v>
@@ -1054,10 +1061,10 @@
     <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>-1_8</v>
+        <v>999998_8</v>
       </c>
       <c r="B7" s="4">
-        <v>-1</v>
+        <v>999998</v>
       </c>
       <c r="C7" s="10">
         <v>8</v>
@@ -1072,10 +1079,10 @@
     <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>-1_9</v>
+        <v>999998_9</v>
       </c>
       <c r="B8" s="4">
-        <v>-1</v>
+        <v>999998</v>
       </c>
       <c r="C8" s="10">
         <v>9</v>
@@ -1092,10 +1099,10 @@
     <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>-1_12</v>
+        <v>999998_12</v>
       </c>
       <c r="B9" s="4">
-        <v>-1</v>
+        <v>999998</v>
       </c>
       <c r="C9" s="10">
         <v>12</v>
@@ -1109,401 +1116,641 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="str">
-        <f>B10&amp;"_"&amp;C10</f>
+        <f t="shared" si="0"/>
+        <v>999999_1</v>
+      </c>
+      <c r="B10" s="4">
+        <v>999999</v>
+      </c>
+      <c r="C10" s="10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="4">
+        <v>40</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>999999_2</v>
+      </c>
+      <c r="B11" s="4">
+        <v>999999</v>
+      </c>
+      <c r="C11" s="10">
+        <v>2</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="4">
+        <v>40</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>999999_3</v>
+      </c>
+      <c r="B12" s="4">
+        <v>999999</v>
+      </c>
+      <c r="C12" s="10">
+        <v>3</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="4">
+        <v>40</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>999999_4</v>
+      </c>
+      <c r="B13" s="4">
+        <v>999999</v>
+      </c>
+      <c r="C13" s="10">
+        <v>4</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="4">
+        <v>40</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>999999_5</v>
+      </c>
+      <c r="B14" s="4">
+        <v>999999</v>
+      </c>
+      <c r="C14" s="10">
+        <v>5</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="4">
+        <v>40</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>999999_6</v>
+      </c>
+      <c r="B15" s="4">
+        <v>999999</v>
+      </c>
+      <c r="C15" s="10">
+        <v>6</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="4">
+        <v>40</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>999999_7</v>
+      </c>
+      <c r="B16" s="4">
+        <v>999999</v>
+      </c>
+      <c r="C16" s="10">
+        <v>7</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="4">
+        <v>40</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>999999_8</v>
+      </c>
+      <c r="B17" s="4">
+        <v>999999</v>
+      </c>
+      <c r="C17" s="10">
+        <v>8</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="4">
+        <v>40</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>999999_9</v>
+      </c>
+      <c r="B18" s="4">
+        <v>999999</v>
+      </c>
+      <c r="C18" s="10">
+        <v>9</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="4">
+        <v>40</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>999999_10</v>
+      </c>
+      <c r="B19" s="4">
+        <v>999999</v>
+      </c>
+      <c r="C19" s="10">
+        <v>10</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="4">
+        <v>40</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>999999_11</v>
+      </c>
+      <c r="B20" s="4">
+        <v>999999</v>
+      </c>
+      <c r="C20" s="10">
+        <v>11</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="4">
+        <v>40</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>999999_12</v>
+      </c>
+      <c r="B21" s="4">
+        <v>999999</v>
+      </c>
+      <c r="C21" s="10">
+        <v>12</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="4">
+        <v>40</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A22" s="12" t="str">
+        <f>B22&amp;"_"&amp;C22</f>
         <v>1_3</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B22" s="12">
         <v>1</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C22" s="12">
         <v>3</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D22" s="12">
         <v>10001</v>
       </c>
-      <c r="E10" s="4">
-        <v>0</v>
-      </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="12" t="str">
-        <f t="shared" ref="A11:A19" si="1">B11&amp;"_"&amp;C11</f>
+      <c r="E22" s="4">
+        <v>0</v>
+      </c>
+      <c r="F22" s="12"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A23" s="12" t="str">
+        <f t="shared" ref="A23:A31" si="1">B23&amp;"_"&amp;C23</f>
         <v>1_4</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B23" s="12">
         <v>1</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C23" s="12">
         <v>4</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D23" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="4">
-        <v>0</v>
-      </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="12" t="str">
+      <c r="E23" s="4">
+        <v>0</v>
+      </c>
+      <c r="F23" s="12"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A24" s="12" t="str">
         <f t="shared" si="1"/>
         <v>2_3</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B24" s="12">
         <v>2</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C24" s="12">
         <v>3</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D24" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="4">
-        <v>0</v>
-      </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="12" t="str">
+      <c r="E24" s="4">
+        <v>0</v>
+      </c>
+      <c r="F24" s="12"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A25" s="12" t="str">
         <f t="shared" si="1"/>
         <v>2_6</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B25" s="12">
         <v>2</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C25" s="12">
         <v>6</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D25" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="4">
-        <v>0</v>
-      </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="12" t="str">
+      <c r="E25" s="4">
+        <v>0</v>
+      </c>
+      <c r="F25" s="12"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A26" s="12" t="str">
         <f t="shared" si="1"/>
         <v>2_7</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B26" s="12">
         <v>2</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C26" s="12">
         <v>7</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D26" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="4">
-        <v>0</v>
-      </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="12" t="str">
+      <c r="E26" s="4">
+        <v>0</v>
+      </c>
+      <c r="F26" s="12"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A27" s="12" t="str">
         <f t="shared" si="1"/>
         <v>3_3</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B27" s="14">
         <v>3</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C27" s="14">
         <v>3</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D27" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="4">
-        <v>0</v>
-      </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="1" t="s">
+      <c r="E27" s="4">
+        <v>0</v>
+      </c>
+      <c r="F27" s="12"/>
+      <c r="G27" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="12" t="str">
+    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A28" s="12" t="str">
         <f t="shared" si="1"/>
         <v>3_6</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B28" s="14">
         <v>3</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C28" s="14">
         <v>6</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D28" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="4">
-        <v>0</v>
-      </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="12" t="str">
+      <c r="E28" s="4">
+        <v>0</v>
+      </c>
+      <c r="F28" s="12"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A29" s="12" t="str">
         <f t="shared" si="1"/>
         <v>3_7</v>
       </c>
-      <c r="B17" s="14">
+      <c r="B29" s="14">
         <v>3</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C29" s="14">
         <v>7</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D29" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="4">
-        <v>0</v>
-      </c>
-      <c r="F17" s="12"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="14" t="str">
+      <c r="E29" s="4">
+        <v>0</v>
+      </c>
+      <c r="F29" s="12"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A30" s="14" t="str">
         <f t="shared" si="1"/>
         <v>3_8</v>
       </c>
-      <c r="B18" s="14">
+      <c r="B30" s="14">
         <v>3</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C30" s="14">
         <v>8</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="4">
-        <v>0</v>
-      </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="14" t="str">
+      <c r="D30" s="1"/>
+      <c r="E30" s="4">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A31" s="14" t="str">
         <f t="shared" si="1"/>
         <v>3_9</v>
       </c>
-      <c r="B19" s="14">
+      <c r="B31" s="14">
         <v>3</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C31" s="14">
         <v>9</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="4">
-        <v>0</v>
-      </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="14" t="str">
-        <f t="shared" ref="A20:A21" si="2">B20&amp;"_"&amp;C20</f>
+      <c r="D31" s="1"/>
+      <c r="E31" s="4">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A32" s="14" t="str">
+        <f t="shared" ref="A32:A33" si="2">B32&amp;"_"&amp;C32</f>
         <v>4_6</v>
       </c>
-      <c r="B20" s="14">
+      <c r="B32" s="14">
         <v>4</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C32" s="14">
         <v>6</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D32" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="4">
-        <v>0</v>
-      </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1" t="s">
+      <c r="E32" s="4">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="14" t="str">
+    <row r="33" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A33" s="14" t="str">
         <f t="shared" si="2"/>
         <v>4_7</v>
       </c>
-      <c r="B21" s="14">
+      <c r="B33" s="14">
         <v>4</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C33" s="14">
         <v>7</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D33" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="4">
-        <v>0</v>
-      </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1" t="s">
+      <c r="E33" s="4">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="14" t="str">
-        <f t="shared" ref="A22" si="3">B22&amp;"_"&amp;C22</f>
+    <row r="34" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A34" s="14" t="str">
+        <f t="shared" ref="A34" si="3">B34&amp;"_"&amp;C34</f>
         <v>4_8</v>
       </c>
-      <c r="B22" s="14">
+      <c r="B34" s="14">
         <v>4</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C34" s="14">
         <v>8</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D34" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="4">
-        <v>0</v>
-      </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A23" s="14" t="str">
-        <f t="shared" ref="A23" si="4">B23&amp;"_"&amp;C23</f>
+      <c r="E34" s="4">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A35" s="14" t="str">
+        <f t="shared" ref="A35" si="4">B35&amp;"_"&amp;C35</f>
         <v>4_9</v>
       </c>
-      <c r="B23" s="14">
+      <c r="B35" s="14">
         <v>4</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C35" s="14">
         <v>9</v>
       </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="4">
-        <v>0</v>
-      </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A24" s="14" t="str">
-        <f t="shared" ref="A24:A27" si="5">B24&amp;"_"&amp;C24</f>
+      <c r="D35" s="12"/>
+      <c r="E35" s="4">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A36" s="14" t="str">
+        <f t="shared" ref="A36:A39" si="5">B36&amp;"_"&amp;C36</f>
         <v>5_5</v>
       </c>
-      <c r="B24" s="14">
+      <c r="B36" s="14">
         <v>5</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C36" s="14">
         <v>5</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D36" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E24" s="4">
-        <v>0</v>
-      </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="14" t="str">
+      <c r="E36" s="4">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A37" s="14" t="str">
         <f t="shared" si="5"/>
         <v>5_6</v>
       </c>
-      <c r="B25" s="14">
+      <c r="B37" s="14">
         <v>5</v>
       </c>
-      <c r="C25" s="14">
+      <c r="C37" s="14">
         <v>6</v>
       </c>
-      <c r="D25" s="12"/>
-      <c r="E25" s="4">
-        <v>0</v>
-      </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="14" t="str">
+      <c r="D37" s="12"/>
+      <c r="E37" s="4">
+        <v>0</v>
+      </c>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A38" s="14" t="str">
         <f t="shared" si="5"/>
         <v>5_7</v>
       </c>
-      <c r="B26" s="14">
+      <c r="B38" s="14">
         <v>5</v>
       </c>
-      <c r="C26" s="14">
+      <c r="C38" s="14">
         <v>7</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D38" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E26" s="4">
-        <v>0</v>
-      </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1" t="s">
+      <c r="E38" s="4">
+        <v>0</v>
+      </c>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A27" s="14" t="str">
+    <row r="39" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A39" s="14" t="str">
         <f t="shared" si="5"/>
         <v>5_8</v>
       </c>
-      <c r="B27" s="14">
+      <c r="B39" s="14">
         <v>5</v>
       </c>
-      <c r="C27" s="14">
+      <c r="C39" s="14">
         <v>8</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D39" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E27" s="4">
-        <v>0</v>
-      </c>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A28" s="14" t="str">
-        <f t="shared" ref="A28" si="6">B28&amp;"_"&amp;C28</f>
+      <c r="E39" s="4">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A40" s="14" t="str">
+        <f t="shared" ref="A40" si="6">B40&amp;"_"&amp;C40</f>
         <v>5_9</v>
       </c>
-      <c r="B28" s="14">
+      <c r="B40" s="14">
         <v>5</v>
       </c>
-      <c r="C28" s="14">
+      <c r="C40" s="14">
         <v>9</v>
       </c>
-      <c r="D28" s="12"/>
-      <c r="E28" s="4">
-        <v>0</v>
-      </c>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A29" s="14" t="str">
-        <f t="shared" ref="A29" si="7">B29&amp;"_"&amp;C29</f>
+      <c r="D40" s="12"/>
+      <c r="E40" s="4">
+        <v>0</v>
+      </c>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A41" s="14" t="str">
+        <f t="shared" ref="A41" si="7">B41&amp;"_"&amp;C41</f>
         <v>5_9</v>
       </c>
-      <c r="B29" s="14">
+      <c r="B41" s="14">
         <v>5</v>
       </c>
-      <c r="C29" s="14">
+      <c r="C41" s="14">
         <v>9</v>
       </c>
-      <c r="D29" s="12"/>
-      <c r="E29" s="4">
-        <v>0</v>
-      </c>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="4">
+        <v>0</v>
+      </c>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Document/Excel/Levels.xlsx
+++ b/Document/Excel/Levels.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="35835" windowHeight="20205" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="35835" windowHeight="20205"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="72">
   <si>
     <t>string</t>
   </si>
@@ -266,6 +266,54 @@
   </si>
   <si>
     <t>40_40_40_40_40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AfterTyps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10006_10007_10008_10009_10010_10011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40_40_40_40_40_40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AfterNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TriggerType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>repeated</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后续猪的添加种类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应的数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后续猪触发方式类型1（消除多少次猪之后触发）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -712,10 +760,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -723,11 +771,12 @@
     <col min="1" max="1" width="23.625" customWidth="1"/>
     <col min="2" max="2" width="28.875" customWidth="1"/>
     <col min="3" max="3" width="30.25" customWidth="1"/>
-    <col min="4" max="4" width="27.125" customWidth="1"/>
-    <col min="5" max="5" width="20.5" customWidth="1"/>
+    <col min="4" max="6" width="34.875" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+    <col min="8" max="8" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -738,13 +787,22 @@
         <v>16</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
         <v>17</v>
       </c>
@@ -755,13 +813,22 @@
         <v>17</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+        <v>61</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -771,10 +838,19 @@
       <c r="C3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="D3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -784,14 +860,23 @@
       <c r="C4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="13">
         <v>1</v>
       </c>
@@ -801,16 +886,19 @@
       <c r="C5" s="13">
         <v>4</v>
       </c>
-      <c r="D5" s="6" t="str">
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="6" t="str">
         <f>"Game"&amp;A5</f>
         <v>Game1</v>
       </c>
-      <c r="E5" s="6" t="str">
+      <c r="H5" s="6" t="str">
         <f>"Desc"&amp;A5</f>
         <v>Desc1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="13">
         <v>2</v>
       </c>
@@ -820,16 +908,19 @@
       <c r="C6" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="6" t="str">
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="6" t="str">
         <f>"Game"&amp;A6</f>
         <v>Game2</v>
       </c>
-      <c r="E6" s="6" t="str">
+      <c r="H6" s="6" t="str">
         <f>"Desc"&amp;A6</f>
         <v>Desc2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="13">
         <v>3</v>
       </c>
@@ -839,16 +930,19 @@
       <c r="C7" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="6" t="str">
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="6" t="str">
         <f>"Game"&amp;A7</f>
         <v>Game3</v>
       </c>
-      <c r="E7" s="6" t="str">
+      <c r="H7" s="6" t="str">
         <f>"Desc"&amp;A7</f>
         <v>Desc3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="13">
         <v>4</v>
       </c>
@@ -858,16 +952,19 @@
       <c r="C8" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="6" t="str">
-        <f t="shared" ref="D8:D9" si="0">"Game"&amp;A8</f>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="6" t="str">
+        <f t="shared" ref="G8:G11" si="0">"Game"&amp;A8</f>
         <v>Game4</v>
       </c>
-      <c r="E8" s="6" t="str">
-        <f t="shared" ref="E8:E9" si="1">"Desc"&amp;A8</f>
+      <c r="H8" s="6" t="str">
+        <f t="shared" ref="H8:H11" si="1">"Desc"&amp;A8</f>
         <v>Desc4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="13">
         <v>5</v>
       </c>
@@ -877,16 +974,19 @@
       <c r="C9" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="6" t="str">
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Game5</v>
       </c>
-      <c r="E9" s="6" t="str">
+      <c r="H9" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Desc5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>999998</v>
       </c>
@@ -896,10 +996,19 @@
       <c r="C10" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Game999998</v>
+      </c>
+      <c r="H10" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Desc999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>999999</v>
       </c>
@@ -908,6 +1017,23 @@
       </c>
       <c r="C11" s="10" t="s">
         <v>59</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Game999999</v>
+      </c>
+      <c r="H11" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Desc999999</v>
       </c>
     </row>
   </sheetData>
@@ -921,7 +1047,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11:E21"/>
     </sheetView>
   </sheetViews>

--- a/Document/Excel/Levels.xlsx
+++ b/Document/Excel/Levels.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="35835" windowHeight="20205"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="35835" windowHeight="20205" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="72">
   <si>
     <t>string</t>
   </si>
@@ -762,7 +762,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H9" sqref="H9:H11"/>
     </sheetView>
   </sheetViews>
@@ -1047,8 +1047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1353,9 +1353,7 @@
       <c r="C15" s="10">
         <v>6</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="D15" s="4"/>
       <c r="E15" s="4">
         <v>40</v>
       </c>

--- a/Document/Excel/Levels.xlsx
+++ b/Document/Excel/Levels.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workcode\myself\PigGoGo\Document\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/work/myself/PigGoGo/Document/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="35835" windowHeight="20205" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
     <sheet name="Detail" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -261,14 +261,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10001_10002_10003_10004_10005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40_40_40_40_40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AfterTyps</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -277,14 +269,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10006_10007_10008_10009_10010_10011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40_40_40_40_40_40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AfterNum</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -313,14 +297,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1_4</t>
+    <t>1_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10008_10009_10010_10011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32_16_36_20_36_36_36_28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28_24_24_16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001_10002_10003_10004_10005_10006_10007</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
@@ -762,21 +762,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9:H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="23.625" customWidth="1"/>
-    <col min="2" max="2" width="28.875" customWidth="1"/>
-    <col min="3" max="3" width="30.25" customWidth="1"/>
-    <col min="4" max="6" width="34.875" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="2" max="2" width="37.5" customWidth="1"/>
+    <col min="3" max="3" width="30.1640625" customWidth="1"/>
+    <col min="4" max="4" width="48" customWidth="1"/>
+    <col min="5" max="5" width="34.83203125" customWidth="1"/>
+    <col min="6" max="6" width="52.6640625" customWidth="1"/>
+    <col min="7" max="7" width="27.1640625" customWidth="1"/>
     <col min="8" max="8" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -787,13 +789,13 @@
         <v>16</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="F1" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>3</v>
@@ -802,7 +804,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
         <v>17</v>
       </c>
@@ -813,13 +815,13 @@
         <v>17</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>0</v>
@@ -845,12 +847,12 @@
         <v>9</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -861,13 +863,13 @@
         <v>20</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>6</v>
@@ -986,7 +988,7 @@
         <v>Desc5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>999998</v>
       </c>
@@ -1008,24 +1010,24 @@
         <v>Desc999998</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>999999</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G11" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1047,20 +1049,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="3" width="30.125" customWidth="1"/>
-    <col min="4" max="4" width="53.125" customWidth="1"/>
-    <col min="5" max="5" width="22.625" customWidth="1"/>
+    <col min="2" max="3" width="30.1640625" customWidth="1"/>
+    <col min="4" max="4" width="53.1640625" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" customWidth="1"/>
     <col min="6" max="6" width="23" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="55" customWidth="1"/>
+    <col min="7" max="7" width="90.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>13</v>
       </c>
@@ -1083,7 +1085,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -1121,7 +1123,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,7 +1146,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="str">
         <f t="shared" ref="A5:A21" si="0">B5&amp;"_"&amp;C5</f>
         <v>999998_4</v>
@@ -1164,7 +1166,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="str">
         <f t="shared" si="0"/>
         <v>999998_5</v>
@@ -1184,7 +1186,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="str">
         <f t="shared" si="0"/>
         <v>999998_8</v>
@@ -1202,7 +1204,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="str">
         <f t="shared" si="0"/>
         <v>999998_9</v>
@@ -1222,7 +1224,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="str">
         <f t="shared" si="0"/>
         <v>999998_12</v>
@@ -1242,7 +1244,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="str">
         <f t="shared" si="0"/>
         <v>999999_1</v>
@@ -1257,12 +1259,12 @@
         <v>53</v>
       </c>
       <c r="E10" s="4">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="str">
         <f t="shared" si="0"/>
         <v>999999_2</v>
@@ -1277,12 +1279,12 @@
         <v>53</v>
       </c>
       <c r="E11" s="4">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="str">
         <f t="shared" si="0"/>
         <v>999999_3</v>
@@ -1297,12 +1299,12 @@
         <v>53</v>
       </c>
       <c r="E12" s="4">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="str">
         <f t="shared" si="0"/>
         <v>999999_4</v>
@@ -1317,12 +1319,12 @@
         <v>53</v>
       </c>
       <c r="E13" s="4">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="str">
         <f t="shared" si="0"/>
         <v>999999_5</v>
@@ -1337,12 +1339,12 @@
         <v>53</v>
       </c>
       <c r="E14" s="4">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="str">
         <f t="shared" si="0"/>
         <v>999999_6</v>
@@ -1355,12 +1357,12 @@
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="str">
         <f t="shared" si="0"/>
         <v>999999_7</v>
@@ -1375,12 +1377,12 @@
         <v>53</v>
       </c>
       <c r="E16" s="4">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="str">
         <f t="shared" si="0"/>
         <v>999999_8</v>
@@ -1395,12 +1397,12 @@
         <v>53</v>
       </c>
       <c r="E17" s="4">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="str">
         <f t="shared" si="0"/>
         <v>999999_9</v>
@@ -1415,12 +1417,12 @@
         <v>53</v>
       </c>
       <c r="E18" s="4">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="str">
         <f t="shared" si="0"/>
         <v>999999_10</v>
@@ -1435,12 +1437,12 @@
         <v>53</v>
       </c>
       <c r="E19" s="4">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="str">
         <f t="shared" si="0"/>
         <v>999999_11</v>
@@ -1455,12 +1457,12 @@
         <v>53</v>
       </c>
       <c r="E20" s="4">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="str">
         <f t="shared" si="0"/>
         <v>999999_12</v>
@@ -1475,12 +1477,12 @@
         <v>53</v>
       </c>
       <c r="E21" s="4">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.15">
       <c r="A22" s="12" t="str">
         <f>B22&amp;"_"&amp;C22</f>
         <v>1_3</v>
@@ -1500,7 +1502,7 @@
       <c r="F22" s="12"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.15">
       <c r="A23" s="12" t="str">
         <f t="shared" ref="A23:A31" si="1">B23&amp;"_"&amp;C23</f>
         <v>1_4</v>
@@ -1520,7 +1522,7 @@
       <c r="F23" s="12"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.15">
       <c r="A24" s="12" t="str">
         <f t="shared" si="1"/>
         <v>2_3</v>
@@ -1540,7 +1542,7 @@
       <c r="F24" s="12"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.15">
       <c r="A25" s="12" t="str">
         <f t="shared" si="1"/>
         <v>2_6</v>
@@ -1560,7 +1562,7 @@
       <c r="F25" s="12"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.15">
       <c r="A26" s="12" t="str">
         <f t="shared" si="1"/>
         <v>2_7</v>
@@ -1580,7 +1582,7 @@
       <c r="F26" s="12"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" ht="16" x14ac:dyDescent="0.15">
       <c r="A27" s="12" t="str">
         <f t="shared" si="1"/>
         <v>3_3</v>
@@ -1602,7 +1604,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" ht="16" x14ac:dyDescent="0.15">
       <c r="A28" s="12" t="str">
         <f t="shared" si="1"/>
         <v>3_6</v>
@@ -1622,7 +1624,7 @@
       <c r="F28" s="12"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" ht="16" x14ac:dyDescent="0.15">
       <c r="A29" s="12" t="str">
         <f t="shared" si="1"/>
         <v>3_7</v>
@@ -1642,7 +1644,7 @@
       <c r="F29" s="12"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7" ht="16" x14ac:dyDescent="0.15">
       <c r="A30" s="14" t="str">
         <f t="shared" si="1"/>
         <v>3_8</v>
@@ -1660,7 +1662,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7" ht="16" x14ac:dyDescent="0.15">
       <c r="A31" s="14" t="str">
         <f t="shared" si="1"/>
         <v>3_9</v>
@@ -1678,7 +1680,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7" ht="16" x14ac:dyDescent="0.15">
       <c r="A32" s="14" t="str">
         <f t="shared" ref="A32:A33" si="2">B32&amp;"_"&amp;C32</f>
         <v>4_6</v>
@@ -1700,7 +1702,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:7" ht="16" x14ac:dyDescent="0.15">
       <c r="A33" s="14" t="str">
         <f t="shared" si="2"/>
         <v>4_7</v>
@@ -1722,7 +1724,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:7" ht="16" x14ac:dyDescent="0.15">
       <c r="A34" s="14" t="str">
         <f t="shared" ref="A34" si="3">B34&amp;"_"&amp;C34</f>
         <v>4_8</v>
@@ -1742,7 +1744,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:7" ht="16" x14ac:dyDescent="0.15">
       <c r="A35" s="14" t="str">
         <f t="shared" ref="A35" si="4">B35&amp;"_"&amp;C35</f>
         <v>4_9</v>
@@ -1760,7 +1762,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:7" ht="16" x14ac:dyDescent="0.15">
       <c r="A36" s="14" t="str">
         <f t="shared" ref="A36:A39" si="5">B36&amp;"_"&amp;C36</f>
         <v>5_5</v>
@@ -1780,7 +1782,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:7" ht="16" x14ac:dyDescent="0.15">
       <c r="A37" s="14" t="str">
         <f t="shared" si="5"/>
         <v>5_6</v>
@@ -1798,7 +1800,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:7" ht="16" x14ac:dyDescent="0.15">
       <c r="A38" s="14" t="str">
         <f t="shared" si="5"/>
         <v>5_7</v>
@@ -1820,7 +1822,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:7" ht="16" x14ac:dyDescent="0.15">
       <c r="A39" s="14" t="str">
         <f t="shared" si="5"/>
         <v>5_8</v>
@@ -1840,7 +1842,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:7" ht="16" x14ac:dyDescent="0.15">
       <c r="A40" s="14" t="str">
         <f t="shared" ref="A40" si="6">B40&amp;"_"&amp;C40</f>
         <v>5_9</v>
@@ -1858,7 +1860,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:7" ht="16" x14ac:dyDescent="0.15">
       <c r="A41" s="14" t="str">
         <f t="shared" ref="A41" si="7">B41&amp;"_"&amp;C41</f>
         <v>5_9</v>

--- a/Document/Excel/Levels.xlsx
+++ b/Document/Excel/Levels.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
     <sheet name="Detail" sheetId="2" r:id="rId2"/>
+    <sheet name="Area" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="112">
   <si>
     <t>string</t>
   </si>
@@ -314,6 +315,170 @@
   </si>
   <si>
     <t>10001_10002_10003_10004_10005_10006_10007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>int32</t>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zh_Hans</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天津市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河北省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山西省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉林省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辽宁省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑龙江省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陕西省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘肃省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青海省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山东省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福建省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台湾省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河南省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖北省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖南省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江西省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江苏省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安徽省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海南省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四川省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贵州省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云南省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内蒙古自治区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广西壮族自治区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西藏自治区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宁夏回族自治区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新疆维吾尔自治区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香港</t>
+    <rPh sb="0" eb="1">
+      <t>xiang gang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>澳门</t>
+    <rPh sb="0" eb="1">
+      <t>ao men</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -324,7 +489,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -377,8 +542,45 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -391,8 +593,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD8E4BC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -415,11 +623,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -458,9 +716,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -762,8 +1037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1050,7 +1325,7 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1883,4 +2158,430 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="14.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.15">
+      <c r="A2" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="18" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="18" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="18" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="18" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="18" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="18" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="18" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="18" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="18" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="18" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>26</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="18" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="18" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="18" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>29</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="18" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="18" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>31</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="18" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>32</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="18" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>33</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="18" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>34</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Document/Excel/Levels.xlsx
+++ b/Document/Excel/Levels.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="113">
   <si>
     <t>string</t>
   </si>
@@ -478,6 +478,28 @@
     <t>澳门</t>
     <rPh sb="0" eb="1">
       <t>ao men</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分组，根据语言区域显示不同的地名</t>
+    <rPh sb="0" eb="1">
+      <t>fen zu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>gen ju</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yu yan</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>qu yu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>xian shi bu tong de</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>di ming</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1325,7 +1347,7 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -2162,15 +2184,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:G3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="14.1640625" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -2206,23 +2229,25 @@
       <c r="F3" s="1"/>
       <c r="G3" s="9"/>
     </row>
-    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>77</v>
-      </c>
+    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C5" s="19" t="s">
         <v>77</v>
@@ -2230,10 +2255,10 @@
     </row>
     <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.15">
       <c r="A6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C6" s="19" t="s">
         <v>77</v>
@@ -2241,10 +2266,10 @@
     </row>
     <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.15">
       <c r="A7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C7" s="19" t="s">
         <v>77</v>
@@ -2252,10 +2277,10 @@
     </row>
     <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.15">
       <c r="A8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C8" s="19" t="s">
         <v>77</v>
@@ -2263,10 +2288,10 @@
     </row>
     <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.15">
       <c r="A9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C9" s="19" t="s">
         <v>77</v>
@@ -2274,10 +2299,10 @@
     </row>
     <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.15">
       <c r="A10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>77</v>
@@ -2285,10 +2310,10 @@
     </row>
     <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.15">
       <c r="A11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>77</v>
@@ -2296,10 +2321,10 @@
     </row>
     <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.15">
       <c r="A12">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C12" s="19" t="s">
         <v>77</v>
@@ -2307,10 +2332,10 @@
     </row>
     <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.15">
       <c r="A13">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C13" s="19" t="s">
         <v>77</v>
@@ -2318,10 +2343,10 @@
     </row>
     <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.15">
       <c r="A14">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C14" s="19" t="s">
         <v>77</v>
@@ -2329,10 +2354,10 @@
     </row>
     <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.15">
       <c r="A15">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C15" s="19" t="s">
         <v>77</v>
@@ -2340,10 +2365,10 @@
     </row>
     <row r="16" spans="1:7" ht="18" x14ac:dyDescent="0.15">
       <c r="A16">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C16" s="19" t="s">
         <v>77</v>
@@ -2351,10 +2376,10 @@
     </row>
     <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.15">
       <c r="A17">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C17" s="19" t="s">
         <v>77</v>
@@ -2362,10 +2387,10 @@
     </row>
     <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.15">
       <c r="A18">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C18" s="19" t="s">
         <v>77</v>
@@ -2373,10 +2398,10 @@
     </row>
     <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.15">
       <c r="A19">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C19" s="19" t="s">
         <v>77</v>
@@ -2384,10 +2409,10 @@
     </row>
     <row r="20" spans="1:3" ht="18" x14ac:dyDescent="0.15">
       <c r="A20">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C20" s="19" t="s">
         <v>77</v>
@@ -2395,10 +2420,10 @@
     </row>
     <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.15">
       <c r="A21">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C21" s="19" t="s">
         <v>77</v>
@@ -2406,10 +2431,10 @@
     </row>
     <row r="22" spans="1:3" ht="18" x14ac:dyDescent="0.15">
       <c r="A22">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C22" s="19" t="s">
         <v>77</v>
@@ -2417,10 +2442,10 @@
     </row>
     <row r="23" spans="1:3" ht="18" x14ac:dyDescent="0.15">
       <c r="A23">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C23" s="19" t="s">
         <v>77</v>
@@ -2428,10 +2453,10 @@
     </row>
     <row r="24" spans="1:3" ht="18" x14ac:dyDescent="0.15">
       <c r="A24">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C24" s="19" t="s">
         <v>77</v>
@@ -2439,10 +2464,10 @@
     </row>
     <row r="25" spans="1:3" ht="18" x14ac:dyDescent="0.15">
       <c r="A25">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C25" s="19" t="s">
         <v>77</v>
@@ -2450,10 +2475,10 @@
     </row>
     <row r="26" spans="1:3" ht="18" x14ac:dyDescent="0.15">
       <c r="A26">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C26" s="19" t="s">
         <v>77</v>
@@ -2461,10 +2486,10 @@
     </row>
     <row r="27" spans="1:3" ht="18" x14ac:dyDescent="0.15">
       <c r="A27">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C27" s="19" t="s">
         <v>77</v>
@@ -2472,10 +2497,10 @@
     </row>
     <row r="28" spans="1:3" ht="18" x14ac:dyDescent="0.15">
       <c r="A28">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C28" s="19" t="s">
         <v>77</v>
@@ -2483,10 +2508,10 @@
     </row>
     <row r="29" spans="1:3" ht="18" x14ac:dyDescent="0.15">
       <c r="A29">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C29" s="19" t="s">
         <v>77</v>
@@ -2494,10 +2519,10 @@
     </row>
     <row r="30" spans="1:3" ht="18" x14ac:dyDescent="0.15">
       <c r="A30">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C30" s="19" t="s">
         <v>77</v>
@@ -2505,10 +2530,10 @@
     </row>
     <row r="31" spans="1:3" ht="18" x14ac:dyDescent="0.15">
       <c r="A31">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C31" s="19" t="s">
         <v>77</v>
@@ -2516,10 +2541,10 @@
     </row>
     <row r="32" spans="1:3" ht="18" x14ac:dyDescent="0.15">
       <c r="A32">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C32" s="19" t="s">
         <v>77</v>
@@ -2527,10 +2552,10 @@
     </row>
     <row r="33" spans="1:3" ht="18" x14ac:dyDescent="0.15">
       <c r="A33">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C33" s="19" t="s">
         <v>77</v>
@@ -2538,10 +2563,10 @@
     </row>
     <row r="34" spans="1:3" ht="18" x14ac:dyDescent="0.15">
       <c r="A34">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C34" s="19" t="s">
         <v>77</v>
@@ -2549,10 +2574,10 @@
     </row>
     <row r="35" spans="1:3" ht="18" x14ac:dyDescent="0.15">
       <c r="A35">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C35" s="19" t="s">
         <v>77</v>
@@ -2560,10 +2585,10 @@
     </row>
     <row r="36" spans="1:3" ht="18" x14ac:dyDescent="0.15">
       <c r="A36">
-        <v>33</v>
-      </c>
-      <c r="B36" s="20" t="s">
-        <v>110</v>
+        <v>32</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>109</v>
       </c>
       <c r="C36" s="19" t="s">
         <v>77</v>
@@ -2571,12 +2596,23 @@
     </row>
     <row r="37" spans="1:3" ht="18" x14ac:dyDescent="0.15">
       <c r="A37">
+        <v>33</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="18" x14ac:dyDescent="0.15">
+      <c r="A38">
         <v>34</v>
       </c>
-      <c r="B37" s="20" t="s">
+      <c r="B38" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="C37" s="19" t="s">
+      <c r="C38" s="19" t="s">
         <v>77</v>
       </c>
     </row>

--- a/Document/Excel/Levels.xlsx
+++ b/Document/Excel/Levels.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="115">
   <si>
     <t>string</t>
   </si>
@@ -500,6 +500,32 @@
     </rPh>
     <rPh sb="14" eb="15">
       <t>di ming</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Floor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地板错位状态显示，0对齐，1错位</t>
+    <rPh sb="0" eb="1">
+      <t>di ban</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>cuo wei</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhuang tai</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xian shi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>dui qi</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>cuo wei</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1057,10 +1083,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1070,12 +1096,12 @@
     <col min="3" max="3" width="30.1640625" customWidth="1"/>
     <col min="4" max="4" width="48" customWidth="1"/>
     <col min="5" max="5" width="34.83203125" customWidth="1"/>
-    <col min="6" max="6" width="52.6640625" customWidth="1"/>
-    <col min="7" max="7" width="27.1640625" customWidth="1"/>
-    <col min="8" max="8" width="20.5" customWidth="1"/>
+    <col min="6" max="7" width="52.6640625" customWidth="1"/>
+    <col min="8" max="8" width="27.1640625" customWidth="1"/>
+    <col min="9" max="9" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -1095,13 +1121,16 @@
         <v>61</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
         <v>17</v>
       </c>
@@ -1121,13 +1150,16 @@
         <v>62</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I2" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -1146,10 +1178,11 @@
       <c r="F3" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="G3" s="9"/>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.25">
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" ht="16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -1168,14 +1201,17 @@
       <c r="F4" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="13">
         <v>1</v>
       </c>
@@ -1188,16 +1224,19 @@
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
-      <c r="G5" s="6" t="str">
+      <c r="G5" s="13">
+        <v>1</v>
+      </c>
+      <c r="H5" s="6" t="str">
         <f>"Game"&amp;A5</f>
         <v>Game1</v>
       </c>
-      <c r="H5" s="6" t="str">
+      <c r="I5" s="6" t="str">
         <f>"Desc"&amp;A5</f>
         <v>Desc1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="13">
         <v>2</v>
       </c>
@@ -1210,16 +1249,19 @@
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
-      <c r="G6" s="6" t="str">
+      <c r="G6" s="13">
+        <v>1</v>
+      </c>
+      <c r="H6" s="6" t="str">
         <f>"Game"&amp;A6</f>
         <v>Game2</v>
       </c>
-      <c r="H6" s="6" t="str">
+      <c r="I6" s="6" t="str">
         <f>"Desc"&amp;A6</f>
         <v>Desc2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="13">
         <v>3</v>
       </c>
@@ -1232,16 +1274,19 @@
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
-      <c r="G7" s="6" t="str">
+      <c r="G7" s="13">
+        <v>1</v>
+      </c>
+      <c r="H7" s="6" t="str">
         <f>"Game"&amp;A7</f>
         <v>Game3</v>
       </c>
-      <c r="H7" s="6" t="str">
+      <c r="I7" s="6" t="str">
         <f>"Desc"&amp;A7</f>
         <v>Desc3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="13">
         <v>4</v>
       </c>
@@ -1254,16 +1299,19 @@
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
-      <c r="G8" s="6" t="str">
-        <f t="shared" ref="G8:G11" si="0">"Game"&amp;A8</f>
+      <c r="G8" s="13">
+        <v>1</v>
+      </c>
+      <c r="H8" s="6" t="str">
+        <f t="shared" ref="H8:H11" si="0">"Game"&amp;A8</f>
         <v>Game4</v>
       </c>
-      <c r="H8" s="6" t="str">
-        <f t="shared" ref="H8:H11" si="1">"Desc"&amp;A8</f>
+      <c r="I8" s="6" t="str">
+        <f t="shared" ref="I8:I11" si="1">"Desc"&amp;A8</f>
         <v>Desc4</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="13">
         <v>5</v>
       </c>
@@ -1276,16 +1324,19 @@
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
-      <c r="G9" s="6" t="str">
+      <c r="G9" s="13">
+        <v>1</v>
+      </c>
+      <c r="H9" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Game5</v>
       </c>
-      <c r="H9" s="6" t="str">
+      <c r="I9" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Desc5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="16" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>999998</v>
       </c>
@@ -1298,16 +1349,19 @@
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
-      <c r="G10" s="6" t="str">
+      <c r="G10" s="13">
+        <v>1</v>
+      </c>
+      <c r="H10" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Game999998</v>
       </c>
-      <c r="H10" s="6" t="str">
+      <c r="I10" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Desc999998</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="16" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>999999</v>
       </c>
@@ -1326,11 +1380,14 @@
       <c r="F11" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="G11" s="6" t="str">
+      <c r="G11" s="10">
+        <v>0</v>
+      </c>
+      <c r="H11" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Game999999</v>
       </c>
-      <c r="H11" s="6" t="str">
+      <c r="I11" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Desc999999</v>
       </c>
@@ -2186,7 +2243,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
